--- a/10. ADO.NET/ADO.NET/06-08.ExcelOLEDB/excel/trainers.xlsx
+++ b/10. ADO.NET/ADO.NET/06-08.ExcelOLEDB/excel/trainers.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="F4" sqref="F4"/>
@@ -561,6 +561,26 @@
         </is>
       </c>
       <c r="B18" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>Ivan Vaszov</t>
+        </is>
+      </c>
+      <c r="B19" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>Jivko Georgiev</t>
+        </is>
+      </c>
+      <c r="B20" s="4">
         <v>24</v>
       </c>
     </row>

--- a/10. ADO.NET/ADO.NET/06-08.ExcelOLEDB/excel/trainers.xlsx
+++ b/10. ADO.NET/ADO.NET/06-08.ExcelOLEDB/excel/trainers.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="F4" sqref="F4"/>
@@ -581,6 +581,26 @@
         </is>
       </c>
       <c r="B20" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>Ivan Vaszov</t>
+        </is>
+      </c>
+      <c r="B21" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>Jivko Georgiev</t>
+        </is>
+      </c>
+      <c r="B22" s="4">
         <v>24</v>
       </c>
     </row>

--- a/10. ADO.NET/ADO.NET/06-08.ExcelOLEDB/excel/trainers.xlsx
+++ b/10. ADO.NET/ADO.NET/06-08.ExcelOLEDB/excel/trainers.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="F4" sqref="F4"/>
@@ -601,6 +601,26 @@
         </is>
       </c>
       <c r="B22" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>Ivan Vaszov</t>
+        </is>
+      </c>
+      <c r="B23" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>Jivko Georgiev</t>
+        </is>
+      </c>
+      <c r="B24" s="4">
         <v>24</v>
       </c>
     </row>
